--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3064D744-E714-482C-AE02-B96CD69F32F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F280E242-B023-4D53-B8FF-E280C0BFB179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -933,10 +933,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0131h13,S2c0306h13,S5d1006h16,S1b0131h12,S2c0306h08,S2c0306h11,S2c0306h16,S4aH2,S2c0306h10,S1b0131h16,S3aH2,S1b0131h17,S2c0306h12,S4aH5,S5d1006h07,S5d1006h13,S1aH6,S5d1006h15,S1b0131h18,S3aH3,S1aH5,S1b0131h08,S2aH4,S2aH5,S2c0306h18,S5aH2,S5aH5,S5d1006h14,S6aH2,S1aH4,S2aH2,S2c0306h15,S4aH6,S5d1006h18,S1aH3,S1b0131h10,S1b0131h14,S2c0306h17,S5d1006h10,S1b0131h09,S2c0306h07,S5aH4,S6aH3,S6aH4,S1b0131h07,S1b0131h11,S2aH6,S2c0306h14,S3aH5,S5aH3,S5d1006h09,S5d1006h17,S1b0131h15,S6aH5,S2c0306h09,S3aH4,S4aH3,S4aH4,S5d1006h11,S5d1006h12,S1aH2,S2aH3,S3aH6,S5aH6,S5d1006h08,S6aH6</t>
-  </si>
-  <si>
-    <t>S1b0131h02,S2c0306h03,S3aH1,S5d1006h22,S1b0131h22,S1b0131h23,S2aH1,S2c0306h24,S3aH7,S5aH8,S5d1006h01,S5d1006h03,S1aH1,S1b0131h04,S2aH7,S2c0306h23,S5d1006h24,S1b0131h20,S2c0306h06,S3aH8,S5d1006h21,S1b0131h06,S5d1006h06,S2c0306h02,S2c0306h04,S2c0306h22,S6aH8,S5d1006h23,S1b0131h05,S2c0306h20,S5d1006h04,S4aH1,S6aH1,S1aH7,S1b0131h01,S1b0131h21,S4aH7,S5aH7,S2c0306h01,S5d1006h02,S1aH8,S5aH1,S6aH7,S1b0131h19,S2aH8,S2c0306h21,S4aH8,S5d1006h19,S1b0131h03,S2c0306h05,S2c0306h19,S1b0131h24,S5d1006h05,S5d1006h20</t>
+    <t>S1b0131h18,S3aH3,S1b0131h17,S2c0306h12,S4aH5,S5d1006h07,S5d1006h13,S1aH6,S5d1006h15,S2c0306h09,S3aH4,S4aH3,S4aH4,S5d1006h11,S5d1006h12,S1b0131h07,S1b0131h11,S2aH6,S2c0306h14,S3aH5,S5aH3,S1b0131h16,S3aH2,S1aH2,S2aH3,S3aH6,S5aH6,S5d1006h08,S6aH6,S1aH3,S1b0131h10,S1b0131h14,S2c0306h17,S5d1006h10,S1b0131h09,S2c0306h07,S5aH4,S6aH3,S6aH4,S1b0131h12,S2c0306h08,S2c0306h11,S2c0306h16,S4aH2,S1aH5,S1b0131h08,S2aH4,S2aH5,S2c0306h18,S5aH2,S5aH5,S5d1006h14,S6aH2,S5d1006h09,S5d1006h17,S1aH4,S2aH2,S2c0306h15,S4aH6,S5d1006h18,S1b0131h13,S2c0306h13,S5d1006h16,S1b0131h15,S6aH5,S2c0306h10</t>
+  </si>
+  <si>
+    <t>S5d1006h23,S1b0131h06,S5d1006h06,S2c0306h02,S2c0306h04,S2c0306h22,S6aH8,S1b0131h03,S2c0306h05,S2c0306h19,S1aH8,S5aH1,S6aH7,S1b0131h20,S2c0306h06,S3aH8,S5d1006h21,S1b0131h24,S5d1006h05,S5d1006h20,S1aH7,S1b0131h01,S1b0131h21,S4aH7,S5aH7,S2c0306h01,S5d1006h02,S1b0131h22,S1b0131h23,S2aH1,S2c0306h24,S3aH7,S5aH8,S5d1006h01,S5d1006h03,S1b0131h05,S2c0306h20,S5d1006h04,S1b0131h19,S2aH8,S4aH1,S6aH1,S1b0131h02,S2c0306h03,S3aH1,S5d1006h22,S2c0306h21,S4aH8,S5d1006h19,S1aH1,S1b0131h04,S2aH7,S2c0306h23,S5d1006h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -964,10 +964,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1175,7 +1174,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1197,16 +1196,14 @@
     <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -1251,7 +1248,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF0E4A5-57B5-5CDB-805E-696E1B1AB001}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C34B64F-744B-9D3E-6969-AC024FA8770E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1656,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0131h02,S2c0306h03,S3aH1,S5d1006h22,S1b0131h22,S1b0131h23,S2aH1,S2c0306h24,S3aH7,S5aH8,S5d1006h01,S5d1006h03,S1aH1,S1b0131h04,S2aH7,S2c0306h23,S5d1006h24,S1b0131h20,S2c0306h06,S3aH8,S5d1006h21,S1b0131h06,S5d1006h06,S2c0306h02,S2c0306h04,S2c0306h22,S6aH8,S5d1006h23,S1b0131h05,S2c0306h20,S5d1006h04,S4aH1,S6aH1,S1aH7,S1b0131h01,S1b0131h21,S4aH7,S5aH7,S2c0306h01,S5d1006h02,S1aH8,S5aH1,S6aH7,S1b0131h19,S2aH8,S2c0306h21,S4aH8,S5d1006h19,S1b0131h03,S2c0306h05,S2c0306h19,S1b0131h24,S5d1006h05,S5d1006h20</v>
+        <v>S5d1006h23,S1b0131h06,S5d1006h06,S2c0306h02,S2c0306h04,S2c0306h22,S6aH8,S1b0131h03,S2c0306h05,S2c0306h19,S1aH8,S5aH1,S6aH7,S1b0131h20,S2c0306h06,S3aH8,S5d1006h21,S1b0131h24,S5d1006h05,S5d1006h20,S1aH7,S1b0131h01,S1b0131h21,S4aH7,S5aH7,S2c0306h01,S5d1006h02,S1b0131h22,S1b0131h23,S2aH1,S2c0306h24,S3aH7,S5aH8,S5d1006h01,S5d1006h03,S1b0131h05,S2c0306h20,S5d1006h04,S1b0131h19,S2aH8,S4aH1,S6aH1,S1b0131h02,S2c0306h03,S3aH1,S5d1006h22,S2c0306h21,S4aH8,S5d1006h19,S1aH1,S1b0131h04,S2aH7,S2c0306h23,S5d1006h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1691,7 +1688,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0131h13,S2c0306h13,S5d1006h16,S1b0131h12,S2c0306h08,S2c0306h11,S2c0306h16,S4aH2,S2c0306h10,S1b0131h16,S3aH2,S1b0131h17,S2c0306h12,S4aH5,S5d1006h07,S5d1006h13,S1aH6,S5d1006h15,S1b0131h18,S3aH3,S1aH5,S1b0131h08,S2aH4,S2aH5,S2c0306h18,S5aH2,S5aH5,S5d1006h14,S6aH2,S1aH4,S2aH2,S2c0306h15,S4aH6,S5d1006h18,S1aH3,S1b0131h10,S1b0131h14,S2c0306h17,S5d1006h10,S1b0131h09,S2c0306h07,S5aH4,S6aH3,S6aH4,S1b0131h07,S1b0131h11,S2aH6,S2c0306h14,S3aH5,S5aH3,S5d1006h09,S5d1006h17,S1b0131h15,S6aH5,S2c0306h09,S3aH4,S4aH3,S4aH4,S5d1006h11,S5d1006h12,S1aH2,S2aH3,S3aH6,S5aH6,S5d1006h08,S6aH6</v>
+        <v>S1b0131h18,S3aH3,S1b0131h17,S2c0306h12,S4aH5,S5d1006h07,S5d1006h13,S1aH6,S5d1006h15,S2c0306h09,S3aH4,S4aH3,S4aH4,S5d1006h11,S5d1006h12,S1b0131h07,S1b0131h11,S2aH6,S2c0306h14,S3aH5,S5aH3,S1b0131h16,S3aH2,S1aH2,S2aH3,S3aH6,S5aH6,S5d1006h08,S6aH6,S1aH3,S1b0131h10,S1b0131h14,S2c0306h17,S5d1006h10,S1b0131h09,S2c0306h07,S5aH4,S6aH3,S6aH4,S1b0131h12,S2c0306h08,S2c0306h11,S2c0306h16,S4aH2,S1aH5,S1b0131h08,S2aH4,S2aH5,S2c0306h18,S5aH2,S5aH5,S5d1006h14,S6aH2,S5d1006h09,S5d1006h17,S1aH4,S2aH2,S2c0306h15,S4aH6,S5d1006h18,S1b0131h13,S2c0306h13,S5d1006h16,S1b0131h15,S6aH5,S2c0306h10</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2304,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591B1198-0185-4D9A-A0A9-048DB8CF66F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7711BE-081E-4CF7-BB29-DA3B4C5916F1}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3021,7 +3018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0612F2-E6D0-445E-85C0-4A3564AB8659}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163E11A3-2E87-49DD-9B22-C6CC93F03F0B}">
   <dimension ref="A1:S130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3040,16 +3037,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="11" t="s">
@@ -3102,13 +3099,13 @@
       <c r="O10" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="R10" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="S10" s="20" t="s">
+      <c r="S10" s="18" t="s">
         <v>304</v>
       </c>
     </row>
@@ -3140,8 +3137,8 @@
       <c r="L11" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="M11" s="17">
-        <v>125.21242320994739</v>
+      <c r="M11" s="14">
+        <v>2.6609330829474288E-2</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>170</v>
@@ -3149,13 +3146,13 @@
       <c r="O11" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="Q11" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="R11" s="22">
-        <v>0.16560240645944377</v>
-      </c>
-      <c r="S11" s="21" t="s">
+      <c r="Q11" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="R11" s="20">
+        <v>0.32347881154678343</v>
+      </c>
+      <c r="S11" s="19" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3187,8 +3184,8 @@
       <c r="L12" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="M12" s="18">
-        <v>16.936718851933588</v>
+      <c r="M12" s="16">
+        <v>3.5542935829863966E-3</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>170</v>
@@ -3196,13 +3193,13 @@
       <c r="O12" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="Q12" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="R12" s="24">
-        <v>0.19055359121853394</v>
-      </c>
-      <c r="S12" s="23" t="s">
+      <c r="Q12" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" s="22">
+        <v>9.1508786743363754E-2</v>
+      </c>
+      <c r="S12" s="21" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3234,8 +3231,8 @@
       <c r="L13" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="M13" s="17">
-        <v>17.18705938375458</v>
+      <c r="M13" s="14">
+        <v>3.5837549782710828E-3</v>
       </c>
       <c r="N13" s="13" t="s">
         <v>170</v>
@@ -3243,13 +3240,13 @@
       <c r="O13" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="Q13" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="R13" s="22">
-        <v>9.1508786743363754E-2</v>
-      </c>
-      <c r="S13" s="21" t="s">
+      <c r="Q13" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" s="20">
+        <v>0.19055359121853394</v>
+      </c>
+      <c r="S13" s="19" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3281,8 +3278,8 @@
       <c r="L14" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="M14" s="18">
-        <v>17.209124388720063</v>
+      <c r="M14" s="16">
+        <v>3.5926293557468044E-3</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>170</v>
@@ -3290,13 +3287,13 @@
       <c r="O14" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="Q14" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="R14" s="24">
-        <v>8.4099424771755762E-2</v>
-      </c>
-      <c r="S14" s="23" t="s">
+      <c r="Q14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="R14" s="22">
+        <v>0.34475697926011928</v>
+      </c>
+      <c r="S14" s="21" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3328,8 +3325,8 @@
       <c r="L15" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="M15" s="17">
-        <v>110.3513046609435</v>
+      <c r="M15" s="14">
+        <v>2.3222568992068777E-2</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>170</v>
@@ -3337,13 +3334,13 @@
       <c r="O15" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="Q15" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="R15" s="22">
-        <v>0.32347881154678343</v>
-      </c>
-      <c r="S15" s="21" t="s">
+      <c r="Q15" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="R15" s="20">
+        <v>0.16560240645944377</v>
+      </c>
+      <c r="S15" s="19" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3375,8 +3372,8 @@
       <c r="L16" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="M16" s="18">
-        <v>38.96887482286764</v>
+      <c r="M16" s="16">
+        <v>8.2349785030432342E-3</v>
       </c>
       <c r="N16" s="15" t="s">
         <v>170</v>
@@ -3384,13 +3381,13 @@
       <c r="O16" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="Q16" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="R16" s="24">
-        <v>0.34475697926011928</v>
-      </c>
-      <c r="S16" s="23" t="s">
+      <c r="Q16" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="R16" s="22">
+        <v>8.4099424771755762E-2</v>
+      </c>
+      <c r="S16" s="21" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3422,8 +3419,8 @@
       <c r="L17" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="M17" s="17">
-        <v>19.512670011751311</v>
+      <c r="M17" s="14">
+        <v>4.1411228680669427E-3</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>170</v>
@@ -3460,8 +3457,8 @@
       <c r="L18" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="M18" s="18">
-        <v>93.701090811936339</v>
+      <c r="M18" s="16">
+        <v>2.0013648469285085E-2</v>
       </c>
       <c r="N18" s="15" t="s">
         <v>170</v>
@@ -3498,8 +3495,8 @@
       <c r="L19" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="M19" s="17">
-        <v>0.40220779012646518</v>
+      <c r="M19" s="14">
+        <v>1.9124762777739999E-4</v>
       </c>
       <c r="N19" s="13" t="s">
         <v>170</v>
@@ -3536,8 +3533,8 @@
       <c r="L20" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="M20" s="18">
-        <v>2.17616795151395E-2</v>
+      <c r="M20" s="16">
+        <v>8.9143233160668748E-5</v>
       </c>
       <c r="N20" s="15" t="s">
         <v>170</v>
@@ -3574,8 +3571,8 @@
       <c r="L21" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="M21" s="17">
-        <v>2.17616795151395E-2</v>
+      <c r="M21" s="14">
+        <v>8.9143233160668748E-5</v>
       </c>
       <c r="N21" s="13" t="s">
         <v>170</v>
@@ -3612,8 +3609,8 @@
       <c r="L22" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="M22" s="18">
-        <v>2.17616795151395E-2</v>
+      <c r="M22" s="16">
+        <v>1.3779084353459999E-4</v>
       </c>
       <c r="N22" s="15" t="s">
         <v>170</v>
@@ -3650,8 +3647,8 @@
       <c r="L23" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="M23" s="17">
-        <v>2.17616795151395E-2</v>
+      <c r="M23" s="14">
+        <v>1.3779084353459999E-4</v>
       </c>
       <c r="N23" s="13" t="s">
         <v>170</v>
@@ -3688,8 +3685,8 @@
       <c r="L24" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="M24" s="18">
-        <v>0.64273171641841242</v>
+      <c r="M24" s="16">
+        <v>1.9124762777739999E-4</v>
       </c>
       <c r="N24" s="15" t="s">
         <v>170</v>
@@ -3726,8 +3723,8 @@
       <c r="L25" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="M25" s="17">
-        <v>1</v>
+      <c r="M25" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N25" s="13" t="s">
         <v>170</v>
@@ -3764,8 +3761,8 @@
       <c r="L26" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="M26" s="18">
-        <v>1</v>
+      <c r="M26" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N26" s="15" t="s">
         <v>170</v>
@@ -3802,8 +3799,8 @@
       <c r="L27" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="M27" s="17">
-        <v>1</v>
+      <c r="M27" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N27" s="13" t="s">
         <v>170</v>
@@ -3840,8 +3837,8 @@
       <c r="L28" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="M28" s="18">
-        <v>1</v>
+      <c r="M28" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N28" s="15" t="s">
         <v>170</v>
@@ -3878,8 +3875,8 @@
       <c r="L29" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="M29" s="17">
-        <v>1</v>
+      <c r="M29" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N29" s="13" t="s">
         <v>170</v>
@@ -3916,8 +3913,8 @@
       <c r="L30" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="M30" s="18">
-        <v>1</v>
+      <c r="M30" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N30" s="15" t="s">
         <v>170</v>
@@ -3954,8 +3951,8 @@
       <c r="L31" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="M31" s="17">
-        <v>1</v>
+      <c r="M31" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N31" s="13" t="s">
         <v>170</v>
@@ -3992,8 +3989,8 @@
       <c r="L32" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="M32" s="18">
-        <v>1</v>
+      <c r="M32" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N32" s="15" t="s">
         <v>170</v>
@@ -4030,8 +4027,8 @@
       <c r="L33" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="M33" s="17">
-        <v>1</v>
+      <c r="M33" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N33" s="13" t="s">
         <v>170</v>
@@ -4068,8 +4065,8 @@
       <c r="L34" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="M34" s="18">
-        <v>1</v>
+      <c r="M34" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N34" s="15" t="s">
         <v>170</v>
@@ -4106,8 +4103,8 @@
       <c r="L35" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="M35" s="17">
-        <v>1</v>
+      <c r="M35" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N35" s="13" t="s">
         <v>170</v>
@@ -4144,8 +4141,8 @@
       <c r="L36" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="M36" s="18">
-        <v>1</v>
+      <c r="M36" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N36" s="15" t="s">
         <v>170</v>
@@ -4182,8 +4179,8 @@
       <c r="L37" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="M37" s="17">
-        <v>1</v>
+      <c r="M37" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N37" s="13" t="s">
         <v>170</v>
@@ -4220,8 +4217,8 @@
       <c r="L38" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="M38" s="18">
-        <v>1</v>
+      <c r="M38" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>170</v>
@@ -4258,8 +4255,8 @@
       <c r="L39" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="M39" s="17">
-        <v>1</v>
+      <c r="M39" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N39" s="13" t="s">
         <v>170</v>
@@ -4296,8 +4293,8 @@
       <c r="L40" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="M40" s="18">
-        <v>1</v>
+      <c r="M40" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N40" s="15" t="s">
         <v>170</v>
@@ -4334,8 +4331,8 @@
       <c r="L41" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="M41" s="17">
-        <v>1</v>
+      <c r="M41" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N41" s="13" t="s">
         <v>170</v>
@@ -4372,8 +4369,8 @@
       <c r="L42" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="M42" s="18">
-        <v>0.99492229852554559</v>
+      <c r="M42" s="16">
+        <v>2.181269939123E-4</v>
       </c>
       <c r="N42" s="15" t="s">
         <v>170</v>
@@ -4410,8 +4407,8 @@
       <c r="L43" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="M43" s="17">
-        <v>236.21049137588327</v>
+      <c r="M43" s="14">
+        <v>4.9432830697270128E-2</v>
       </c>
       <c r="N43" s="13" t="s">
         <v>170</v>
@@ -4448,8 +4445,8 @@
       <c r="L44" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="M44" s="18">
-        <v>32.888453871371993</v>
+      <c r="M44" s="16">
+        <v>6.853554681911512E-3</v>
       </c>
       <c r="N44" s="15" t="s">
         <v>170</v>
@@ -4486,8 +4483,8 @@
       <c r="L45" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="M45" s="17">
-        <v>33.347574429013406</v>
+      <c r="M45" s="14">
+        <v>6.9577230707885676E-3</v>
       </c>
       <c r="N45" s="13" t="s">
         <v>170</v>
@@ -4524,8 +4521,8 @@
       <c r="L46" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="M46" s="18">
-        <v>33.592557460535936</v>
+      <c r="M46" s="16">
+        <v>7.0001295779194726E-3</v>
       </c>
       <c r="N46" s="15" t="s">
         <v>170</v>
@@ -4562,8 +4559,8 @@
       <c r="L47" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="M47" s="17">
-        <v>197.96300193286567</v>
+      <c r="M47" s="14">
+        <v>4.1577464050914725E-2</v>
       </c>
       <c r="N47" s="13" t="s">
         <v>170</v>
@@ -4600,8 +4597,8 @@
       <c r="L48" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="M48" s="18">
-        <v>68.264903758169908</v>
+      <c r="M48" s="16">
+        <v>1.4388208269339222E-2</v>
       </c>
       <c r="N48" s="15" t="s">
         <v>170</v>
@@ -4638,8 +4635,8 @@
       <c r="L49" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="M49" s="17">
-        <v>34.468749823283218</v>
+      <c r="M49" s="14">
+        <v>7.243436280080541E-3</v>
       </c>
       <c r="N49" s="13" t="s">
         <v>170</v>
@@ -4676,8 +4673,8 @@
       <c r="L50" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="M50" s="18">
-        <v>167.01442680886859</v>
+      <c r="M50" s="16">
+        <v>3.5065638875473128E-2</v>
       </c>
       <c r="N50" s="15" t="s">
         <v>170</v>
@@ -4714,8 +4711,8 @@
       <c r="L51" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="M51" s="17">
-        <v>0.17486534147526861</v>
+      <c r="M51" s="14">
+        <v>3.4257146967205984E-5</v>
       </c>
       <c r="N51" s="13" t="s">
         <v>170</v>
@@ -4752,8 +4749,8 @@
       <c r="L52" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="M52" s="18">
-        <v>9.7696787503192203E-2</v>
+      <c r="M52" s="16">
+        <v>1.8946301655311889E-5</v>
       </c>
       <c r="N52" s="15" t="s">
         <v>170</v>
@@ -4790,8 +4787,8 @@
       <c r="L53" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="M53" s="17">
-        <v>3.4337748743991203E-2</v>
+      <c r="M53" s="14">
+        <v>6.517120181777578E-6</v>
       </c>
       <c r="N53" s="13" t="s">
         <v>170</v>
@@ -4828,8 +4825,8 @@
       <c r="L54" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="M54" s="18">
-        <v>1.1808228693702899E-2</v>
+      <c r="M54" s="16">
+        <v>2.2734668397922028E-6</v>
       </c>
       <c r="N54" s="15" t="s">
         <v>170</v>
@@ -4866,8 +4863,8 @@
       <c r="L55" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="M55" s="17">
-        <v>2.8280208695302601E-2</v>
+      <c r="M55" s="14">
+        <v>5.398674215690003E-6</v>
       </c>
       <c r="N55" s="13" t="s">
         <v>170</v>
@@ -4904,8 +4901,8 @@
       <c r="L56" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="M56" s="18">
-        <v>7.1297562902782996E-2</v>
+      <c r="M56" s="16">
+        <v>1.3899093137292051E-5</v>
       </c>
       <c r="N56" s="15" t="s">
         <v>170</v>
@@ -4942,8 +4939,8 @@
       <c r="L57" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="M57" s="17">
-        <v>0.1166970601964188</v>
+      <c r="M57" s="14">
+        <v>2.2796004354123626E-5</v>
       </c>
       <c r="N57" s="13" t="s">
         <v>170</v>
@@ -4980,8 +4977,8 @@
       <c r="L58" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="M58" s="18">
-        <v>0.17193461858431069</v>
+      <c r="M58" s="16">
+        <v>3.3634857850774313E-5</v>
       </c>
       <c r="N58" s="15" t="s">
         <v>170</v>
@@ -5018,8 +5015,8 @@
       <c r="L59" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="M59" s="17">
-        <v>0.20550600352084339</v>
+      <c r="M59" s="14">
+        <v>4.0176667492070361E-5</v>
       </c>
       <c r="N59" s="13" t="s">
         <v>170</v>
@@ -5056,8 +5053,8 @@
       <c r="L60" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="M60" s="18">
-        <v>0.18057928477704219</v>
+      <c r="M60" s="16">
+        <v>3.5630584473136843E-5</v>
       </c>
       <c r="N60" s="15" t="s">
         <v>170</v>
@@ -5094,8 +5091,8 @@
       <c r="L61" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="M61" s="17">
-        <v>0.14707800232829679</v>
+      <c r="M61" s="14">
+        <v>2.8843950307865177E-5</v>
       </c>
       <c r="N61" s="13" t="s">
         <v>170</v>
@@ -5132,8 +5129,8 @@
       <c r="L62" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="M62" s="18">
-        <v>0.1281829585859722</v>
+      <c r="M62" s="16">
+        <v>2.5227417601081218E-5</v>
       </c>
       <c r="N62" s="15" t="s">
         <v>170</v>
@@ -5170,8 +5167,8 @@
       <c r="L63" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="M63" s="17">
-        <v>0.11743993012744169</v>
+      <c r="M63" s="14">
+        <v>2.325844102707556E-5</v>
       </c>
       <c r="N63" s="13" t="s">
         <v>170</v>
@@ -5208,8 +5205,8 @@
       <c r="L64" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="M64" s="18">
-        <v>0.116234903787931</v>
+      <c r="M64" s="16">
+        <v>2.2900022770765075E-5</v>
       </c>
       <c r="N64" s="15" t="s">
         <v>170</v>
@@ -5246,8 +5243,8 @@
       <c r="L65" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="M65" s="17">
-        <v>0.12448260762969481</v>
+      <c r="M65" s="14">
+        <v>2.4173862030389125E-5</v>
       </c>
       <c r="N65" s="13" t="s">
         <v>170</v>
@@ -5284,8 +5281,8 @@
       <c r="L66" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="M66" s="18">
-        <v>0.1834285352427692</v>
+      <c r="M66" s="16">
+        <v>3.6039094667303122E-5</v>
       </c>
       <c r="N66" s="15" t="s">
         <v>170</v>
@@ -5322,8 +5319,8 @@
       <c r="L67" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="M67" s="17">
-        <v>0.33396358600513337</v>
+      <c r="M67" s="14">
+        <v>6.5682162437510097E-5</v>
       </c>
       <c r="N67" s="13" t="s">
         <v>170</v>
@@ -5360,8 +5357,8 @@
       <c r="L68" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="M68" s="18">
-        <v>0.56404826102603567</v>
+      <c r="M68" s="16">
+        <v>1.10318786576E-4</v>
       </c>
       <c r="N68" s="15" t="s">
         <v>170</v>
@@ -5398,8 +5395,8 @@
       <c r="L69" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="M69" s="17">
-        <v>0.86107080708801809</v>
+      <c r="M69" s="14">
+        <v>1.701591532397E-4</v>
       </c>
       <c r="N69" s="13" t="s">
         <v>170</v>
@@ -5436,8 +5433,8 @@
       <c r="L70" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="M70" s="18">
-        <v>0.96324877079299343</v>
+      <c r="M70" s="16">
+        <v>2.0423243838599999E-4</v>
       </c>
       <c r="N70" s="15" t="s">
         <v>170</v>
@@ -5474,8 +5471,8 @@
       <c r="L71" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="M71" s="17">
-        <v>0.97731535886249621</v>
+      <c r="M71" s="14">
+        <v>2.0940519779990001E-4</v>
       </c>
       <c r="N71" s="13" t="s">
         <v>170</v>
@@ -5512,8 +5509,8 @@
       <c r="L72" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="M72" s="18">
-        <v>0.96921013338082596</v>
+      <c r="M72" s="16">
+        <v>2.0687847591679999E-4</v>
       </c>
       <c r="N72" s="15" t="s">
         <v>170</v>
@@ -5550,8 +5547,8 @@
       <c r="L73" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="M73" s="17">
-        <v>0.98647649455786079</v>
+      <c r="M73" s="14">
+        <v>2.1155637626579999E-4</v>
       </c>
       <c r="N73" s="13" t="s">
         <v>170</v>
@@ -5588,8 +5585,8 @@
       <c r="L74" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="M74" s="18">
-        <v>0.96541079851119216</v>
+      <c r="M74" s="16">
+        <v>2.029009652356E-4</v>
       </c>
       <c r="N74" s="15" t="s">
         <v>170</v>
@@ -5626,8 +5623,8 @@
       <c r="L75" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="M75" s="17">
-        <v>314.98069036849489</v>
+      <c r="M75" s="14">
+        <v>6.5724240355904795E-2</v>
       </c>
       <c r="N75" s="13" t="s">
         <v>170</v>
@@ -5664,8 +5661,8 @@
       <c r="L76" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="M76" s="18">
-        <v>43.268623800306933</v>
+      <c r="M76" s="16">
+        <v>9.0181758128231818E-3</v>
       </c>
       <c r="N76" s="15" t="s">
         <v>170</v>
@@ -5702,8 +5699,8 @@
       <c r="L77" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="M77" s="17">
-        <v>43.36200892271134</v>
+      <c r="M77" s="14">
+        <v>9.047887452717231E-3</v>
       </c>
       <c r="N77" s="13" t="s">
         <v>170</v>
@@ -5740,8 +5737,8 @@
       <c r="L78" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="M78" s="18">
-        <v>43.941870132167018</v>
+      <c r="M78" s="16">
+        <v>9.189727977476329E-3</v>
       </c>
       <c r="N78" s="15" t="s">
         <v>170</v>
@@ -5778,8 +5775,8 @@
       <c r="L79" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="M79" s="17">
-        <v>268.52634924870955</v>
+      <c r="M79" s="14">
+        <v>5.6023396077010866E-2</v>
       </c>
       <c r="N79" s="13" t="s">
         <v>170</v>
@@ -5816,8 +5813,8 @@
       <c r="L80" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="M80" s="18">
-        <v>92.19487477006588</v>
+      <c r="M80" s="16">
+        <v>1.9067729664208822E-2</v>
       </c>
       <c r="N80" s="15" t="s">
         <v>170</v>
@@ -5854,8 +5851,8 @@
       <c r="L81" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="M81" s="17">
-        <v>45.240208751338685</v>
+      <c r="M81" s="14">
+        <v>9.3748790121043913E-3</v>
       </c>
       <c r="N81" s="13" t="s">
         <v>170</v>
@@ -5892,8 +5889,8 @@
       <c r="L82" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="M82" s="18">
-        <v>228.59778758589283</v>
+      <c r="M82" s="16">
+        <v>4.7581478639672783E-2</v>
       </c>
       <c r="N82" s="15" t="s">
         <v>170</v>
@@ -5930,8 +5927,8 @@
       <c r="L83" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="M83" s="17">
-        <v>247.12766700802726</v>
+      <c r="M83" s="14">
+        <v>5.0914177778469551E-2</v>
       </c>
       <c r="N83" s="13" t="s">
         <v>170</v>
@@ -5968,8 +5965,8 @@
       <c r="L84" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="M84" s="18">
-        <v>34.217575534918673</v>
+      <c r="M84" s="16">
+        <v>6.9864093416431277E-3</v>
       </c>
       <c r="N84" s="15" t="s">
         <v>170</v>
@@ -6006,8 +6003,8 @@
       <c r="L85" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="M85" s="17">
-        <v>35.026594954223754</v>
+      <c r="M85" s="14">
+        <v>7.1535854231870788E-3</v>
       </c>
       <c r="N85" s="13" t="s">
         <v>170</v>
@@ -6044,8 +6041,8 @@
       <c r="L86" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="M86" s="18">
-        <v>35.838933627660225</v>
+      <c r="M86" s="16">
+        <v>7.3433717912017088E-3</v>
       </c>
       <c r="N86" s="15" t="s">
         <v>170</v>
@@ -6082,8 +6079,8 @@
       <c r="L87" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="M87" s="17">
-        <v>224.34149899300473</v>
+      <c r="M87" s="14">
+        <v>4.5807737642621707E-2</v>
       </c>
       <c r="N87" s="13" t="s">
         <v>170</v>
@@ -6120,8 +6117,8 @@
       <c r="L88" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="M88" s="18">
-        <v>77.850725227547528</v>
+      <c r="M88" s="16">
+        <v>1.6040735181819282E-2</v>
       </c>
       <c r="N88" s="15" t="s">
         <v>170</v>
@@ -6158,8 +6155,8 @@
       <c r="L89" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="M89" s="17">
-        <v>38.658922237918532</v>
+      <c r="M89" s="14">
+        <v>7.9459124197177097E-3</v>
       </c>
       <c r="N89" s="13" t="s">
         <v>170</v>
@@ -6196,8 +6193,8 @@
       <c r="L90" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="M90" s="18">
-        <v>188.24334910855828</v>
+      <c r="M90" s="16">
+        <v>3.8608133260789011E-2</v>
       </c>
       <c r="N90" s="15" t="s">
         <v>170</v>
@@ -6234,8 +6231,8 @@
       <c r="L91" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="M91" s="17">
-        <v>286.03568142221292</v>
+      <c r="M91" s="14">
+        <v>6.0718438090433639E-2</v>
       </c>
       <c r="N91" s="13" t="s">
         <v>170</v>
@@ -6272,8 +6269,8 @@
       <c r="L92" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="M92" s="18">
-        <v>39.470569881237708</v>
+      <c r="M92" s="16">
+        <v>8.3811145993273242E-3</v>
       </c>
       <c r="N92" s="15" t="s">
         <v>170</v>
@@ -6310,8 +6307,8 @@
       <c r="L93" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="M93" s="17">
-        <v>39.795483790395444</v>
+      <c r="M93" s="14">
+        <v>8.4506378735172832E-3</v>
       </c>
       <c r="N93" s="13" t="s">
         <v>170</v>
@@ -6348,8 +6345,8 @@
       <c r="L94" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="M94" s="18">
-        <v>39.670628154274631</v>
+      <c r="M94" s="16">
+        <v>8.4377256479465784E-3</v>
       </c>
       <c r="N94" s="15" t="s">
         <v>170</v>
@@ -6386,8 +6383,8 @@
       <c r="L95" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="M95" s="17">
-        <v>222.74297610137882</v>
+      <c r="M95" s="14">
+        <v>4.7332722859194591E-2</v>
       </c>
       <c r="N95" s="13" t="s">
         <v>170</v>
@@ -6424,8 +6421,8 @@
       <c r="L96" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="M96" s="18">
-        <v>77.043957548519103</v>
+      <c r="M96" s="16">
+        <v>1.6310069728516161E-2</v>
       </c>
       <c r="N96" s="15" t="s">
         <v>170</v>
@@ -6462,8 +6459,8 @@
       <c r="L97" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="M97" s="17">
-        <v>38.790979593860008</v>
+      <c r="M97" s="14">
+        <v>8.1703985035484743E-3</v>
       </c>
       <c r="N97" s="13" t="s">
         <v>170</v>
@@ -6500,8 +6497,8 @@
       <c r="L98" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="M98" s="18">
-        <v>198.42314335241332</v>
+      <c r="M98" s="16">
+        <v>4.184835203252163E-2</v>
       </c>
       <c r="N98" s="15" t="s">
         <v>170</v>
@@ -6538,8 +6535,8 @@
       <c r="L99" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="M99" s="17">
-        <v>1.25431920229359E-2</v>
+      <c r="M99" s="14">
+        <v>1.44988213896218E-6</v>
       </c>
       <c r="N99" s="13" t="s">
         <v>170</v>
@@ -6576,8 +6573,8 @@
       <c r="L100" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="M100" s="18">
-        <v>8.7183747853399E-3</v>
+      <c r="M100" s="16">
+        <v>1.523613733566155E-6</v>
       </c>
       <c r="N100" s="15" t="s">
         <v>170</v>
@@ -6614,8 +6611,8 @@
       <c r="L101" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="M101" s="17">
-        <v>7.0492420276354996E-3</v>
+      <c r="M101" s="14">
+        <v>1.1731830480348306E-6</v>
       </c>
       <c r="N101" s="13" t="s">
         <v>170</v>
@@ -6652,8 +6649,8 @@
       <c r="L102" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="M102" s="18">
-        <v>1.8532355328176001E-3</v>
+      <c r="M102" s="16">
+        <v>3.191766207304846E-7</v>
       </c>
       <c r="N102" s="15" t="s">
         <v>170</v>
@@ -6690,8 +6687,8 @@
       <c r="L103" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="M103" s="17">
-        <v>2.3363524325700001E-3</v>
+      <c r="M103" s="14">
+        <v>3.989029107875207E-7</v>
       </c>
       <c r="N103" s="13" t="s">
         <v>170</v>
@@ -6728,8 +6725,8 @@
       <c r="L104" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="M104" s="18">
-        <v>2.0953079977972999E-3</v>
+      <c r="M104" s="16">
+        <v>3.5302667712830082E-7</v>
       </c>
       <c r="N104" s="15" t="s">
         <v>170</v>
@@ -6766,8 +6763,8 @@
       <c r="L105" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="M105" s="17">
-        <v>3.6747244262994002E-3</v>
+      <c r="M105" s="14">
+        <v>6.3462369114051736E-7</v>
       </c>
       <c r="N105" s="13" t="s">
         <v>170</v>
@@ -6804,8 +6801,8 @@
       <c r="L106" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="M106" s="18">
-        <v>1.5777707703478899E-2</v>
+      <c r="M106" s="16">
+        <v>2.3033186134865828E-6</v>
       </c>
       <c r="N106" s="15" t="s">
         <v>170</v>
@@ -6842,8 +6839,8 @@
       <c r="L107" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="M107" s="17">
-        <v>3.9917886797465003E-2</v>
+      <c r="M107" s="14">
+        <v>7.530230801523832E-6</v>
       </c>
       <c r="N107" s="13" t="s">
         <v>170</v>
@@ -6880,8 +6877,8 @@
       <c r="L108" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="M108" s="18">
-        <v>6.4939079244764303E-2</v>
+      <c r="M108" s="16">
+        <v>1.2131927642560168E-5</v>
       </c>
       <c r="N108" s="15" t="s">
         <v>170</v>
@@ -6918,8 +6915,8 @@
       <c r="L109" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="M109" s="17">
-        <v>9.2737565534838501E-2</v>
+      <c r="M109" s="14">
+        <v>1.8060911062267329E-5</v>
       </c>
       <c r="N109" s="13" t="s">
         <v>170</v>
@@ -6956,8 +6953,8 @@
       <c r="L110" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="M110" s="18">
-        <v>0.13588162343746929</v>
+      <c r="M110" s="16">
+        <v>2.6212494399421199E-5</v>
       </c>
       <c r="N110" s="15" t="s">
         <v>170</v>
@@ -6994,8 +6991,8 @@
       <c r="L111" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="M111" s="17">
-        <v>0.14306137192418081</v>
+      <c r="M111" s="14">
+        <v>2.7641768200064929E-5</v>
       </c>
       <c r="N111" s="13" t="s">
         <v>170</v>
@@ -7032,8 +7029,8 @@
       <c r="L112" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="M112" s="18">
-        <v>0.1206271759458008</v>
+      <c r="M112" s="16">
+        <v>2.3531260917765037E-5</v>
       </c>
       <c r="N112" s="15" t="s">
         <v>170</v>
@@ -7070,8 +7067,8 @@
       <c r="L113" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="M113" s="17">
-        <v>0.11865671140744689</v>
+      <c r="M113" s="14">
+        <v>2.2994519242244803E-5</v>
       </c>
       <c r="N113" s="13" t="s">
         <v>170</v>
@@ -7108,8 +7105,8 @@
       <c r="L114" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="M114" s="18">
-        <v>0.1285749531592445</v>
+      <c r="M114" s="16">
+        <v>2.5073197583359571E-5</v>
       </c>
       <c r="N114" s="15" t="s">
         <v>170</v>
@@ -7146,8 +7143,8 @@
       <c r="L115" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="M115" s="17">
-        <v>0.14510719244728679</v>
+      <c r="M115" s="14">
+        <v>2.8524161201808805E-5</v>
       </c>
       <c r="N115" s="13" t="s">
         <v>170</v>
@@ -7184,8 +7181,8 @@
       <c r="L116" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="M116" s="18">
-        <v>0.1724287775530608</v>
+      <c r="M116" s="16">
+        <v>3.3799749919429065E-5</v>
       </c>
       <c r="N116" s="15" t="s">
         <v>170</v>
@@ -7222,8 +7219,8 @@
       <c r="L117" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="M117" s="17">
-        <v>0.21888254829158049</v>
+      <c r="M117" s="14">
+        <v>4.2803732493409308E-5</v>
       </c>
       <c r="N117" s="13" t="s">
         <v>170</v>
@@ -7260,8 +7257,8 @@
       <c r="L118" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="M118" s="18">
-        <v>0.26248604442958839</v>
+      <c r="M118" s="16">
+        <v>5.156007175174158E-5</v>
       </c>
       <c r="N118" s="15" t="s">
         <v>170</v>
@@ -7298,8 +7295,8 @@
       <c r="L119" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="M119" s="17">
-        <v>0.2905811338148932</v>
+      <c r="M119" s="14">
+        <v>5.686712170057242E-5</v>
       </c>
       <c r="N119" s="13" t="s">
         <v>170</v>
@@ -7336,8 +7333,8 @@
       <c r="L120" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="M120" s="18">
-        <v>0.3350898562639969</v>
+      <c r="M120" s="16">
+        <v>6.557836810859981E-5</v>
       </c>
       <c r="N120" s="15" t="s">
         <v>170</v>
@@ -7374,8 +7371,8 @@
       <c r="L121" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="M121" s="17">
-        <v>0.43821718529060438</v>
+      <c r="M121" s="14">
+        <v>8.6091697568738015E-5</v>
       </c>
       <c r="N121" s="13" t="s">
         <v>170</v>
@@ -7412,8 +7409,8 @@
       <c r="L122" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="M122" s="18">
-        <v>0.4179459849254244</v>
+      <c r="M122" s="16">
+        <v>8.204607632899634E-5</v>
       </c>
       <c r="N122" s="15" t="s">
         <v>170</v>
@@ -7450,8 +7447,8 @@
       <c r="L123" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="M123" s="17">
-        <v>169.10309860617267</v>
+      <c r="M123" s="14">
+        <v>3.6662071087535136E-2</v>
       </c>
       <c r="N123" s="13" t="s">
         <v>170</v>
@@ -7488,8 +7485,8 @@
       <c r="L124" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="M124" s="18">
-        <v>23.985187432088011</v>
+      <c r="M124" s="16">
+        <v>5.330109965263727E-3</v>
       </c>
       <c r="N124" s="15" t="s">
         <v>170</v>
@@ -7526,8 +7523,8 @@
       <c r="L125" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="M125" s="17">
-        <v>23.958707950812247</v>
+      <c r="M125" s="14">
+        <v>5.3335867092306685E-3</v>
       </c>
       <c r="N125" s="13" t="s">
         <v>170</v>
@@ -7564,8 +7561,8 @@
       <c r="L126" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="M126" s="18">
-        <v>24.447082907321526</v>
+      <c r="M126" s="16">
+        <v>5.5226868815515763E-3</v>
       </c>
       <c r="N126" s="15" t="s">
         <v>170</v>
@@ -7602,8 +7599,8 @@
       <c r="L127" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="M127" s="17">
-        <v>145.4691779319914</v>
+      <c r="M127" s="14">
+        <v>3.1515657407784566E-2</v>
       </c>
       <c r="N127" s="13" t="s">
         <v>170</v>
@@ -7640,8 +7637,8 @@
       <c r="L128" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="M128" s="18">
-        <v>47.742216627882641</v>
+      <c r="M128" s="16">
+        <v>1.0408000848768471E-2</v>
       </c>
       <c r="N128" s="15" t="s">
         <v>170</v>
@@ -7678,8 +7675,8 @@
       <c r="L129" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="M129" s="17">
-        <v>23.688633450985318</v>
+      <c r="M129" s="14">
+        <v>5.1164171189268335E-3</v>
       </c>
       <c r="N129" s="13" t="s">
         <v>170</v>
@@ -7716,8 +7713,8 @@
       <c r="L130" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="M130" s="18">
-        <v>120.06411007239235</v>
+      <c r="M130" s="16">
+        <v>2.5960862236259676E-2</v>
       </c>
       <c r="N130" s="15" t="s">
         <v>170</v>
@@ -7736,7 +7733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA81A7E-0C8C-472A-9FD5-417C57398CBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0EB06D-AAEB-42CE-B09F-10386EEBFBDF}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
